--- a/code/outputs/comparison_terms_results.xlsx
+++ b/code/outputs/comparison_terms_results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
   <si>
     <t>y_true</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Symbolic literal definitions</t>
+  </si>
+  <si>
+    <t>Complex concept structure rules</t>
   </si>
   <si>
     <t>Managing agent</t>
@@ -520,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -616,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -624,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -632,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -648,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -656,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -672,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -698,186 +701,186 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -887,63 +890,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -961,78 +993,78 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1106,7 +1138,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1180,7 +1212,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1254,7 +1286,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1328,7 +1360,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1402,7 +1434,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1476,7 +1508,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1550,7 +1582,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1624,7 +1656,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1698,7 +1730,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1772,7 +1804,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1846,7 +1878,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1920,7 +1952,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1994,7 +2026,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2068,7 +2100,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2142,7 +2174,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2216,7 +2248,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2290,7 +2322,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2364,7 +2396,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2438,7 +2470,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2512,7 +2544,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2586,7 +2618,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2660,7 +2692,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2747,38 +2779,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.7318840579710146</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.7132784958871916</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>1</v>
